--- a/doc/auditSEOP4.xlsx
+++ b/doc/auditSEOP4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\live0\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\live0\Desktop\P4_jambert_quentin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>Catégorie</t>
   </si>
@@ -140,9 +140,6 @@
     <t>page2</t>
   </si>
   <si>
-    <t>refonte page "nous contacter"</t>
-  </si>
-  <si>
     <t>taille non definie</t>
   </si>
   <si>
@@ -273,6 +270,12 @@
   </si>
   <si>
     <t>div &gt; class "Keyword"</t>
+  </si>
+  <si>
+    <t>https://www.theleverageway.com/blog/can-google-read-text-in-images/</t>
+  </si>
+  <si>
+    <t>refonte page "Contact"</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +388,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -604,7 +608,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -675,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,19 +687,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="E3" s="9">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,10 +707,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -715,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,7 +737,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +755,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,13 +769,13 @@
         <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="9">
         <v>4</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,19 +783,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="9">
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -802,10 +806,10 @@
         <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E9" s="10">
         <v>6</v>
@@ -813,22 +817,22 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="9">
         <v>7</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -848,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,14 +863,14 @@
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -884,7 +888,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -902,7 +906,7 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -913,16 +917,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E15" s="9">
         <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -940,24 +944,27 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="9">
         <v>10</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -965,16 +972,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -982,16 +989,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -999,16 +1006,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2018,8 +2025,9 @@
     <hyperlink ref="F16" r:id="rId15" location="le-format-bmp"/>
     <hyperlink ref="F18" r:id="rId16" location="images-without-dimensions"/>
     <hyperlink ref="F19" r:id="rId17"/>
+    <hyperlink ref="F17" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId18"/>
+  <pageSetup orientation="landscape" r:id="rId19"/>
 </worksheet>
 </file>